--- a/mbs-perturbation/chain/svm/chain-svm-default-results.xlsx
+++ b/mbs-perturbation/chain/svm/chain-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8427128427128427</v>
+        <v>0.6291486291486292</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4836956521739131</v>
+        <v>0.8858695652173914</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2884057971014493</v>
+        <v>0.863768115942029</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6144927536231883</v>
+        <v>0.9768115942028985</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.855072463768116</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4849918439048874</v>
+        <v>0.8421340736558127</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/chain-svm-default-results.xlsx
+++ b/mbs-perturbation/chain/svm/chain-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.125</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6291486291486292</v>
+        <v>0.6545454545454545</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8858695652173914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.863768115942029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9768115942028985</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.855072463768116</v>
+        <v>0.3777056277056277</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01379310344827586</v>
+        <v>0.4228070175438596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.3819047619047619</v>
       </c>
       <c r="D7" t="n">
-        <v>0.025</v>
+        <v>0.3111175309355289</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8421340736558127</v>
+        <v>0.7822077922077921</v>
       </c>
     </row>
   </sheetData>
